--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N2">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q2">
-        <v>6.685380274992223</v>
+        <v>28.28735598776267</v>
       </c>
       <c r="R2">
-        <v>60.16842247493</v>
+        <v>254.586203889864</v>
       </c>
       <c r="S2">
-        <v>0.002037252672369697</v>
+        <v>0.006081899200215311</v>
       </c>
       <c r="T2">
-        <v>0.002037252672369697</v>
+        <v>0.006081899200215313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H3">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q3">
-        <v>98.40963738366445</v>
+        <v>145.5090776339885</v>
       </c>
       <c r="R3">
-        <v>885.6867364529801</v>
+        <v>1309.581698705896</v>
       </c>
       <c r="S3">
-        <v>0.02998861523206868</v>
+        <v>0.03128505694449023</v>
       </c>
       <c r="T3">
-        <v>0.02998861523206868</v>
+        <v>0.03128505694449025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H4">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N4">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q4">
-        <v>91.69160872521222</v>
+        <v>230.8293968173014</v>
       </c>
       <c r="R4">
-        <v>825.2244785269099</v>
+        <v>2077.464571355712</v>
       </c>
       <c r="S4">
-        <v>0.02794141353605088</v>
+        <v>0.04962928046356321</v>
       </c>
       <c r="T4">
-        <v>0.02794141353605088</v>
+        <v>0.04962928046356322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H5">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N5">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q5">
-        <v>21.07208967282222</v>
+        <v>52.73446028787689</v>
       </c>
       <c r="R5">
-        <v>189.6488070554</v>
+        <v>474.610142590892</v>
       </c>
       <c r="S5">
-        <v>0.006421350653597774</v>
+        <v>0.01133812831384358</v>
       </c>
       <c r="T5">
-        <v>0.006421350653597774</v>
+        <v>0.01133812831384358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H6">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N6">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q6">
-        <v>14.02381230258555</v>
+        <v>15.63952792864</v>
       </c>
       <c r="R6">
-        <v>126.21431072327</v>
+        <v>140.75575135776</v>
       </c>
       <c r="S6">
-        <v>0.004273511440646762</v>
+        <v>0.003362563558152605</v>
       </c>
       <c r="T6">
-        <v>0.004273511440646762</v>
+        <v>0.003362563558152606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H7">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N7">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q7">
-        <v>57.59376814105444</v>
+        <v>54.71268326643779</v>
       </c>
       <c r="R7">
-        <v>518.3439132694899</v>
+        <v>492.41414939794</v>
       </c>
       <c r="S7">
-        <v>0.01755069318885385</v>
+        <v>0.01176345448276378</v>
       </c>
       <c r="T7">
-        <v>0.01755069318885385</v>
+        <v>0.01176345448276378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N8">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q8">
-        <v>13.67017759353678</v>
+        <v>39.11901768529934</v>
       </c>
       <c r="R8">
-        <v>123.031598341831</v>
+        <v>352.0711591676941</v>
       </c>
       <c r="S8">
-        <v>0.004165747450205225</v>
+        <v>0.00841075152009102</v>
       </c>
       <c r="T8">
-        <v>0.004165747450205225</v>
+        <v>0.008410751520091022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q9">
         <v>201.2267312575296</v>
@@ -1013,10 +1013,10 @@
         <v>1811.040581317766</v>
       </c>
       <c r="S9">
-        <v>0.06132032571731275</v>
+        <v>0.0432645842342619</v>
       </c>
       <c r="T9">
-        <v>0.06132032571731275</v>
+        <v>0.0432645842342619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N10">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q10">
-        <v>187.4897946792107</v>
+        <v>319.2175069415947</v>
       </c>
       <c r="R10">
-        <v>1687.408152112897</v>
+        <v>2872.957562474352</v>
       </c>
       <c r="S10">
-        <v>0.05713423463450062</v>
+        <v>0.06863309179559575</v>
       </c>
       <c r="T10">
-        <v>0.05713423463450062</v>
+        <v>0.06863309179559575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N11">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q11">
-        <v>43.08793161279777</v>
+        <v>72.92729251608412</v>
       </c>
       <c r="R11">
-        <v>387.79138451518</v>
+        <v>656.3456326447571</v>
       </c>
       <c r="S11">
-        <v>0.01313029329885908</v>
+        <v>0.01567967123612816</v>
       </c>
       <c r="T11">
-        <v>0.01313029329885908</v>
+        <v>0.01567967123612816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N12">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q12">
-        <v>28.67570681534544</v>
+        <v>21.62814261944</v>
       </c>
       <c r="R12">
-        <v>258.0813613381089</v>
+        <v>194.65328357496</v>
       </c>
       <c r="S12">
-        <v>0.008738419946009787</v>
+        <v>0.004650140626653836</v>
       </c>
       <c r="T12">
-        <v>0.008738419946009787</v>
+        <v>0.004650140626653836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N13">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q13">
-        <v>117.7669790474425</v>
+        <v>75.66300736045724</v>
       </c>
       <c r="R13">
-        <v>1059.902811426983</v>
+        <v>680.9670662441151</v>
       </c>
       <c r="S13">
-        <v>0.03588742643089029</v>
+        <v>0.01626786130702796</v>
       </c>
       <c r="T13">
-        <v>0.03588742643089028</v>
+        <v>0.01626786130702796</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H14">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N14">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q14">
-        <v>20.60829163053789</v>
+        <v>71.58907791598733</v>
       </c>
       <c r="R14">
-        <v>185.474624674841</v>
+        <v>644.3017012438861</v>
       </c>
       <c r="S14">
-        <v>0.006280016314754246</v>
+        <v>0.01539194953072855</v>
       </c>
       <c r="T14">
-        <v>0.006280016314754246</v>
+        <v>0.01539194953072855</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H15">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q15">
-        <v>303.3566413632918</v>
+        <v>368.2514795914282</v>
       </c>
       <c r="R15">
-        <v>2730.209772269626</v>
+        <v>3314.263316322854</v>
       </c>
       <c r="S15">
-        <v>0.09244262897209404</v>
+        <v>0.07917559987487378</v>
       </c>
       <c r="T15">
-        <v>0.09244262897209404</v>
+        <v>0.07917559987487381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H16">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N16">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q16">
-        <v>282.6477081267519</v>
+        <v>584.1784464126987</v>
       </c>
       <c r="R16">
-        <v>2543.829373140767</v>
+        <v>5257.606017714288</v>
       </c>
       <c r="S16">
-        <v>0.08613194388872147</v>
+        <v>0.1256007959017956</v>
       </c>
       <c r="T16">
-        <v>0.08613194388872147</v>
+        <v>0.1256007959017956</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H17">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N17">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q17">
-        <v>64.9566294481089</v>
+        <v>133.4593232410814</v>
       </c>
       <c r="R17">
-        <v>584.60966503298</v>
+        <v>1201.133909169733</v>
       </c>
       <c r="S17">
-        <v>0.0197943963526356</v>
+        <v>0.02869430962838491</v>
       </c>
       <c r="T17">
-        <v>0.0197943963526356</v>
+        <v>0.02869430962838491</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H18">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N18">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q18">
-        <v>43.22967457583322</v>
+        <v>39.58020622136</v>
       </c>
       <c r="R18">
-        <v>389.067071182499</v>
+        <v>356.22185599224</v>
       </c>
       <c r="S18">
-        <v>0.01317348698693001</v>
+        <v>0.008509908973683686</v>
       </c>
       <c r="T18">
-        <v>0.01317348698693001</v>
+        <v>0.008509908973683686</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H19">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N19">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q19">
-        <v>177.5380189504348</v>
+        <v>138.4657706096039</v>
       </c>
       <c r="R19">
-        <v>1597.842170553913</v>
+        <v>1246.191935486435</v>
       </c>
       <c r="S19">
-        <v>0.05410160509596681</v>
+        <v>0.02977071663721632</v>
       </c>
       <c r="T19">
-        <v>0.0541016050959668</v>
+        <v>0.02977071663721632</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H20">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N20">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q20">
-        <v>7.597900058470779</v>
+        <v>12.18267072337133</v>
       </c>
       <c r="R20">
-        <v>68.38110052623701</v>
+        <v>109.644036510342</v>
       </c>
       <c r="S20">
-        <v>0.002315327111072299</v>
+        <v>0.0026193248800281</v>
       </c>
       <c r="T20">
-        <v>0.002315327111072299</v>
+        <v>0.0026193248800281</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H21">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q21">
-        <v>111.8420432160536</v>
+        <v>62.66719239660423</v>
       </c>
       <c r="R21">
-        <v>1006.578388944482</v>
+        <v>564.004731569438</v>
       </c>
       <c r="S21">
-        <v>0.03408190589808407</v>
+        <v>0.01347370703297715</v>
       </c>
       <c r="T21">
-        <v>0.03408190589808407</v>
+        <v>0.01347370703297716</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H22">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N22">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q22">
-        <v>104.2070384388688</v>
+        <v>99.41256213257067</v>
       </c>
       <c r="R22">
-        <v>937.8633459498189</v>
+        <v>894.713059193136</v>
       </c>
       <c r="S22">
-        <v>0.0317552717731624</v>
+        <v>0.02137411437063961</v>
       </c>
       <c r="T22">
-        <v>0.0317552717731624</v>
+        <v>0.02137411437063961</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H23">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N23">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q23">
-        <v>23.94832077931778</v>
+        <v>22.71143919353344</v>
       </c>
       <c r="R23">
-        <v>215.53488701386</v>
+        <v>204.402952741801</v>
       </c>
       <c r="S23">
-        <v>0.007297831761184095</v>
+        <v>0.004883053896116882</v>
       </c>
       <c r="T23">
-        <v>0.007297831761184095</v>
+        <v>0.004883053896116883</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H24">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N24">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q24">
-        <v>15.93799005157144</v>
+        <v>6.73556125592</v>
       </c>
       <c r="R24">
-        <v>143.441910464143</v>
+        <v>60.62005130328</v>
       </c>
       <c r="S24">
-        <v>0.004856823619476657</v>
+        <v>0.00144817368696823</v>
       </c>
       <c r="T24">
-        <v>0.004856823619476657</v>
+        <v>0.00144817368696823</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H25">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N25">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q25">
-        <v>65.45501921010455</v>
+        <v>23.56341133174389</v>
       </c>
       <c r="R25">
-        <v>589.0951728909409</v>
+        <v>212.070701985695</v>
       </c>
       <c r="S25">
-        <v>0.01994627191284949</v>
+        <v>0.005066231449658099</v>
       </c>
       <c r="T25">
-        <v>0.01994627191284949</v>
+        <v>0.0050662314496581</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H26">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I26">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J26">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N26">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q26">
-        <v>7.58899351360689</v>
+        <v>19.17584546373267</v>
       </c>
       <c r="R26">
-        <v>68.30094162246201</v>
+        <v>172.582609173594</v>
       </c>
       <c r="S26">
-        <v>0.002312612997352633</v>
+        <v>0.004122886537708976</v>
       </c>
       <c r="T26">
-        <v>0.002312612997352633</v>
+        <v>0.004122886537708977</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H27">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I27">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J27">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>57.348682</v>
       </c>
       <c r="O27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q27">
-        <v>111.7109377569258</v>
+        <v>98.63981587698511</v>
       </c>
       <c r="R27">
-        <v>1005.398439812332</v>
+        <v>887.758342892866</v>
       </c>
       <c r="S27">
-        <v>0.03404195380321678</v>
+        <v>0.02120797071140725</v>
       </c>
       <c r="T27">
-        <v>0.03404195380321678</v>
+        <v>0.02120797071140726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H28">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I28">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J28">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N28">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q28">
-        <v>104.0848830201549</v>
+        <v>156.4779982890613</v>
       </c>
       <c r="R28">
-        <v>936.763947181394</v>
+        <v>1408.301984601552</v>
       </c>
       <c r="S28">
-        <v>0.03171804704652265</v>
+        <v>0.03364342051117258</v>
       </c>
       <c r="T28">
-        <v>0.03171804704652265</v>
+        <v>0.03364342051117258</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H29">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I29">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J29">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N29">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q29">
-        <v>23.92024765492889</v>
+        <v>35.74840510124522</v>
       </c>
       <c r="R29">
-        <v>215.28222889436</v>
+        <v>321.735645911207</v>
       </c>
       <c r="S29">
-        <v>0.007289276967689853</v>
+        <v>0.007686055794266989</v>
       </c>
       <c r="T29">
-        <v>0.007289276967689854</v>
+        <v>0.00768605579426699</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H30">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I30">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J30">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N30">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q30">
-        <v>15.91930693882422</v>
+        <v>10.60195130344</v>
       </c>
       <c r="R30">
-        <v>143.273762449418</v>
+        <v>95.41756173096</v>
       </c>
       <c r="S30">
-        <v>0.004851130267743945</v>
+        <v>0.002279463629651635</v>
       </c>
       <c r="T30">
-        <v>0.004851130267743945</v>
+        <v>0.002279463629651636</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H31">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I31">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J31">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N31">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q31">
-        <v>65.37829036915177</v>
+        <v>37.08943174742945</v>
       </c>
       <c r="R31">
-        <v>588.404613322366</v>
+        <v>333.8048857268651</v>
       </c>
       <c r="S31">
-        <v>0.0199228901410057</v>
+        <v>0.007974382101272267</v>
       </c>
       <c r="T31">
-        <v>0.0199228901410057</v>
+        <v>0.007974382101272269</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H32">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I32">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J32">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N32">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q32">
-        <v>19.6361891181089</v>
+        <v>78.96086132133134</v>
       </c>
       <c r="R32">
-        <v>176.72570206298</v>
+        <v>710.6477518919821</v>
       </c>
       <c r="S32">
-        <v>0.005983785081854697</v>
+        <v>0.01697691362622471</v>
       </c>
       <c r="T32">
-        <v>0.005983785081854697</v>
+        <v>0.01697691362622471</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H33">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I33">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J33">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>57.348682</v>
       </c>
       <c r="O33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q33">
-        <v>289.0471702766978</v>
+        <v>406.1716515683776</v>
       </c>
       <c r="R33">
-        <v>2601.42453249028</v>
+        <v>3655.544864115398</v>
       </c>
       <c r="S33">
-        <v>0.08808206801486496</v>
+        <v>0.08732859458100348</v>
       </c>
       <c r="T33">
-        <v>0.08808206801486496</v>
+        <v>0.08732859458100352</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H34">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I34">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J34">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N34">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q34">
-        <v>269.3150868630289</v>
+        <v>644.3333904682507</v>
       </c>
       <c r="R34">
-        <v>2423.83578176726</v>
+        <v>5799.000514214256</v>
       </c>
       <c r="S34">
-        <v>0.0820690608241909</v>
+        <v>0.1385343590916084</v>
       </c>
       <c r="T34">
-        <v>0.0820690608241909</v>
+        <v>0.1385343590916084</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H35">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I35">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J35">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N35">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q35">
-        <v>61.8925956204889</v>
+        <v>147.2021070985801</v>
       </c>
       <c r="R35">
-        <v>557.0333605844002</v>
+        <v>1324.818963887221</v>
       </c>
       <c r="S35">
-        <v>0.01886068565155551</v>
+        <v>0.03164906532162861</v>
       </c>
       <c r="T35">
-        <v>0.01886068565155551</v>
+        <v>0.03164906532162862</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H36">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I36">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J36">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N36">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q36">
-        <v>41.19051111580222</v>
+        <v>43.65592162232</v>
       </c>
       <c r="R36">
-        <v>370.71460004222</v>
+        <v>392.90329460088</v>
       </c>
       <c r="S36">
-        <v>0.01255208759939081</v>
+        <v>0.009386204738057258</v>
       </c>
       <c r="T36">
-        <v>0.01255208759939081</v>
+        <v>0.00938620473805726</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H37">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I37">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J37">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N37">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q37">
-        <v>169.1634696492378</v>
+        <v>152.7240862591773</v>
       </c>
       <c r="R37">
-        <v>1522.47122684314</v>
+        <v>1374.516776332595</v>
       </c>
       <c r="S37">
-        <v>0.05154960771631511</v>
+        <v>0.03283631381013952</v>
       </c>
       <c r="T37">
-        <v>0.0515496077163151</v>
+        <v>0.03283631381013953</v>
       </c>
     </row>
   </sheetData>
